--- a/target/test-classes/TestData/DataProvider.xlsx
+++ b/target/test-classes/TestData/DataProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\Web Client Saas Application\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CD0F9-D26A-45F4-9EC1-BD1239DD9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB8DE0-CCD7-428E-A56A-17EBBEA4C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBAE21FA-4CF7-4414-9CA2-9C3FEDF6CF94}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Name1</t>
   </si>
@@ -483,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A493A4E0-44AF-4FF4-A962-7B6A9B02EA81}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,38 +515,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
